--- a/20220506_7chord勉強会.xlsx
+++ b/20220506_7chord勉強会.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/king/workspace/java/20220506_7chord勉強会/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0A771DEC-3FC5-0341-A932-7DDB85496171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A80A09-9B53-3D44-9959-C60086FC8538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22920" yWindow="500" windowWidth="45860" windowHeight="28300" xr2:uid="{1B050B47-D4B1-234A-B2BA-CF03B1224F6A}"/>
+    <workbookView xWindow="22920" yWindow="500" windowWidth="45860" windowHeight="28300" activeTab="2" xr2:uid="{1B050B47-D4B1-234A-B2BA-CF03B1224F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="勉強会内容" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="参考_アーキテクチャのお話 (というか業務の話)" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1641,54 +1640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>販売系システム（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（店舗販売）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（Webサイト販売））（他には、コンビニ、スーパー、スーツ、コンタクトレンズ、ガソリンスタンド...などなど、色々）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ハンバイ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ケイシステム </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">テンポ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ハンバイ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">ハンバイ </t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">ホカニハ </t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t xml:space="preserve">イロイロ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>店舗</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">テンポ </t>
@@ -1759,6 +1710,10 @@
   </si>
   <si>
     <t>・・・ｎシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーキテクチャの話</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1931,14 +1886,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>231394</xdr:rowOff>
     </xdr:to>
@@ -1970,7 +1925,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="952500" y="2794001"/>
+          <a:off x="1320800" y="2540001"/>
           <a:ext cx="1828800" cy="1501393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2115,13 +2070,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2153,7 +2108,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1193800" y="1524000"/>
+          <a:off x="1562100" y="1270000"/>
           <a:ext cx="1371600" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3225,7 +3180,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>87008</xdr:rowOff>
     </xdr:to>
@@ -6304,7 +6259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE91B6C-4FD8-BF4F-B823-C3E920114CE2}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -6882,7 +6837,8 @@
     <hyperlink ref="D14" r:id="rId3" xr:uid="{7D530513-E792-1343-AEE7-54C3C3DA7AC9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{E186C2FD-0B0B-074C-826D-01EC795DA52A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6890,18 +6846,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC11D36E-4CA3-9747-B8D1-012E9F28C7D9}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1"/>
+    <col min="6" max="7" width="5.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1"/>
+    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="4"/>
-    <col min="11" max="16384" width="10.7109375" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="1"/>
+    <col min="17" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7073,7 +7034,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="Q13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -7437,7 +7398,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7446,32 +7408,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BF3E62-1B92-F940-802F-2C0F28F1B59F}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1"/>
+    <col min="7" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7479,10 +7448,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7523,7 +7492,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -7591,7 +7560,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7601,17 +7570,17 @@
     </row>
     <row r="32" spans="1:6">
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -7621,22 +7590,23 @@
     </row>
     <row r="57" spans="2:4">
       <c r="D57" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
